--- a/office/gate/excel/基础.xlsx
+++ b/office/gate/excel/基础.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepository\daily\office\gate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE771F7-C38C-4844-9C24-D3549C70F614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CFDC5B-E085-424C-97D0-880E0142E88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sumif" sheetId="4" r:id="rId2"/>
     <sheet name="count" sheetId="5" r:id="rId3"/>
+    <sheet name="数据集" sheetId="6" r:id="rId4"/>
+    <sheet name="多表引用-A" sheetId="7" r:id="rId5"/>
+    <sheet name="多表引用-B" sheetId="10" r:id="rId6"/>
+    <sheet name="多表引用-C" sheetId="11" r:id="rId7"/>
+    <sheet name="多表引用-汇总" sheetId="12" r:id="rId8"/>
+    <sheet name="subtotal" sheetId="13" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">subtotal!$A$22:$C$36</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="137">
   <si>
     <t>12334556666</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +211,342 @@
   </si>
   <si>
     <t>COUNTIF()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNTIF(COUNT_range,count_criterial)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于500的笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否体检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已体检人员名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF(COUNTIF(E:E,A22)=0,"否","是")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来与没来，签未签到，等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4218709452744260077</t>
+  </si>
+  <si>
+    <t>5274146499995115828</t>
+  </si>
+  <si>
+    <t>6225817582183755197</t>
+  </si>
+  <si>
+    <t>6282027733394045207</t>
+  </si>
+  <si>
+    <t>5587305922966534555</t>
+  </si>
+  <si>
+    <t>3769696525319211325</t>
+  </si>
+  <si>
+    <t>3568892195820456750</t>
+  </si>
+  <si>
+    <t>6283627287203335844</t>
+  </si>
+  <si>
+    <t>622282273983383620</t>
+  </si>
+  <si>
+    <t>4041731060046389304</t>
+  </si>
+  <si>
+    <t>5287086904455542774</t>
+  </si>
+  <si>
+    <t>4041713405092693746</t>
+  </si>
+  <si>
+    <t>4003604292093512993</t>
+  </si>
+  <si>
+    <t>6226033449031781272</t>
+  </si>
+  <si>
+    <t>5525834134825364595</t>
+  </si>
+  <si>
+    <t>5525859496115778515</t>
+  </si>
+  <si>
+    <t>4391885870136037727</t>
+  </si>
+  <si>
+    <t>5176361183608298088</t>
+  </si>
+  <si>
+    <t>5194129487193669725</t>
+  </si>
+  <si>
+    <t>6225771575683836045</t>
+  </si>
+  <si>
+    <t>王国贤</t>
+  </si>
+  <si>
+    <t>卞昕蕊</t>
+  </si>
+  <si>
+    <t>韦雅涵</t>
+  </si>
+  <si>
+    <t>柳东东</t>
+  </si>
+  <si>
+    <t>贺淳美</t>
+  </si>
+  <si>
+    <t>汤淑慧</t>
+  </si>
+  <si>
+    <t>苏亦菲</t>
+  </si>
+  <si>
+    <t>冯泽惠</t>
+  </si>
+  <si>
+    <t>郎益冉</t>
+  </si>
+  <si>
+    <t>唐明远</t>
+  </si>
+  <si>
+    <t>顾国栋</t>
+  </si>
+  <si>
+    <t>云国栋</t>
+  </si>
+  <si>
+    <t>殷涵越</t>
+  </si>
+  <si>
+    <t>秦涵越</t>
+  </si>
+  <si>
+    <t>卫慧嘉</t>
+  </si>
+  <si>
+    <t>罗萌</t>
+  </si>
+  <si>
+    <t>周易轩</t>
+  </si>
+  <si>
+    <t>俞清妍</t>
+  </si>
+  <si>
+    <t>伍益冉</t>
+  </si>
+  <si>
+    <t>孔佳钰</t>
+  </si>
+  <si>
+    <t>出现的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始-&gt;样式-&gt;条件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据有效性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据有效性中的公式进行运算，true放行，false抛出错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将A87:A100设置为禁止输入重复数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNTIFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取岗位工资人员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得奖金人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均基本工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A产品销售量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A产品销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前筛选后的总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时政新闻部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时事评论部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社委办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党总支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选后重编序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBTOTAL(103,$B$23:B23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +594,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -298,11 +649,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -580,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E30"/>
     </sheetView>
   </sheetViews>
@@ -666,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C13F3-6519-4EFD-945A-1C4CFB7E3F2B}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:C35"/>
     </sheetView>
   </sheetViews>
@@ -1103,223 +1483,2227 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6161A9D5-9C51-4A25-BECA-EA5C652D25F4}">
-  <dimension ref="A4:H16"/>
+  <dimension ref="A4:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>500</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>500</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <f>COUNT(E6:E14)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <f>COUNT(A7:E7)</f>
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>780</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>780</v>
+      </c>
+      <c r="G10">
+        <f>COUNT(A6:E15)</f>
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>450</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>450</v>
+      </c>
+      <c r="G11">
+        <f>COUNT(1,2,你好,4)</f>
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>800</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>800</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>500</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <f>COUNTIF(B$7:B$14,G18)</f>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <f>COUNTIF(E7:E14,"&gt;500")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19">
+        <f>COUNTIF(B$7:B$14,G19)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IF(COUNTIF(E:E,A27)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IF(COUNTIF(E:E,A28)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IF(COUNTIF(E:E,A29)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IF(COUNTIF(E:E,A30)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IF(COUNTIF(E:E,A31)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IF(COUNTIF(E:E,A32)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IF(COUNTIF(E:E,A33)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IF(COUNTIF(E:E,A34)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IF(COUNTIF(E:E,A35)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(COUNTIF(E:E,A36)=0,"否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(COUNTIF(E:E,A37)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IF(COUNTIF(E:E,A38)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IF(COUNTIF(E:E,A39)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IF(COUNTIF(E:E,A40)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IF(COUNTIF(E:E,A41)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IF(COUNTIF(E:E,A42)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IF(COUNTIF(E:E,A43)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IF(COUNTIF(E:E,A44)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(COUNTIF(E:E,A45)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IF(COUNTIF(E:E,A46)=0,"否","是")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f>COUNTIF($A$55:$A$80,A55)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B80" si="0">COUNTIF($A$55:$A$80,A56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="B87" t="b">
+        <f>COUNTIF($A$87:$A$100,A87)&lt;2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="3">
+        <v>500</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>500</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108">
+        <f>COUNTIFS($A$107:$A$114,G108,$B$107:$B$114,H108)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109">
+        <f>COUNTIFS($A$107:$A$114,G109,$B$107:$B$114,H109)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="3">
+        <v>780</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3">
+        <v>450</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="3">
+        <v>800</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="3">
+        <v>800</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="3">
+        <v>500</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A55:A80 A83:A84">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($A$55:$A$80,A55)&gt;=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数据重复" error="您输入的数据发生重复，请检查后，重新输入！" promptTitle="请输入数据" sqref="A87:A100" xr:uid="{28BE1330-C6A8-4C06-A8A3-BEEC5D8C6A4C}">
+      <formula1>COUNTIF($A$87:$A$100,A87)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F656F4-C181-49A7-B9D6-BCA366E4ED3D}">
+  <dimension ref="A1:E191"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33D4FFD-9182-4D10-A4E5-FE2C6DC4AEC9}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>1580</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">SUM(B3:D3)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>4900</v>
+      </c>
+      <c r="D4">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>500</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>4100</v>
+      </c>
+      <c r="C5">
         <v>2000</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G8">
-        <f>COUNT(E6:E14)</f>
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="D6">
         <v>1000</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G9">
-        <f>COUNT(A7:E7)</f>
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
-        <v>780</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>780</v>
-      </c>
-      <c r="G10">
-        <f>COUNT(A6:E15)</f>
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>450</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>450</v>
-      </c>
-      <c r="G11">
-        <f>COUNT(1,2,你好,4)</f>
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>800</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
-        <v>800</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>500</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A698867-0F3C-4241-BC1F-095E95F480A1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>1580</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">SUM(B3:D3)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>2900</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>900</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="1">SUM(B5:D5)</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+      <c r="C6">
+        <v>3900</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>7900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77EB4A5-810E-4D2B-B7C7-DBA79537A578}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>2580</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>2600</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>900</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">SUM(B3:D3)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>2900</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>2100</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>2200</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13788720-C84C-4BB6-8321-3257202DD38A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3">
+        <f>COUNT('多表引用-A:多表引用-C'!E$2:E$6)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="3">
+        <f>COUNT('多表引用-A:多表引用-C'!C$2:C$6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="3">
+        <f>COUNT('多表引用-A:多表引用-C'!D$2:D$6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="3">
+        <f>AVERAGE('多表引用-A:多表引用-C'!E$2:E$6)</f>
+        <v>4509.333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED6547-11CF-43B1-8DE8-15F27BA04784}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>198</v>
+      </c>
+      <c r="D2">
+        <f>C2*100</f>
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">C3*100</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>145</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(C3:C7)</f>
+        <v>113.8</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C3:C7)</f>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>180</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12">
+        <f>SUM(C2:C9)</f>
+        <v>964</v>
+      </c>
+      <c r="C12">
+        <f>SUBTOTAL(9,C2:C9)</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(C2:C9)</f>
+        <v>120.5</v>
+      </c>
+      <c r="C13">
+        <f>SUBTOTAL(1,C2:C9)</f>
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <f>MAX(C2:C9)</f>
+        <v>198</v>
+      </c>
+      <c r="C14">
+        <f>SUBTOTAL(104,C2:C9)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <f>MIN(C2:C9)</f>
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <f>SUBTOTAL(105,C2:C9)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>SUBTOTAL(103,$B$23:B23)</f>
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>SUBTOTAL(103,$B$23:B24)</f>
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>SUBTOTAL(103,$B$23:B25)</f>
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>SUBTOTAL(103,$B$23:B26)</f>
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>SUBTOTAL(103,$B$23:B27)</f>
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>SUBTOTAL(103,$B$23:B28)</f>
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>SUBTOTAL(103,$B$23:B29)</f>
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>SUBTOTAL(103,$B$23:B30)</f>
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f>SUBTOTAL(103,$B$23:B31)</f>
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>SUBTOTAL(103,$B$23:B32)</f>
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>SUBTOTAL(103,$B$23:B33)</f>
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>SUBTOTAL(103,$B$23:B34)</f>
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>SUBTOTAL(103,$B$23:B35)</f>
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>SUBTOTAL(103,$B$23:B36)</f>
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>SUBTOTAL(103,$B$23:B37)</f>
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="str">
+        <f>"总计："&amp;SUBTOTAL(103,B23:B37)</f>
+        <v>总计：15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A22:C36" xr:uid="{C90E03E8-C94F-4E17-8EB7-7F2B350B0F58}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/office/gate/excel/基础.xlsx
+++ b/office/gate/excel/基础.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepository\daily\office\gate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CFDC5B-E085-424C-97D0-880E0142E88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE4885-B19E-454A-B100-BE528EEA6429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <sheet name="多表引用-C" sheetId="11" r:id="rId7"/>
     <sheet name="多表引用-汇总" sheetId="12" r:id="rId8"/>
     <sheet name="subtotal" sheetId="13" r:id="rId9"/>
+    <sheet name="自定义格式" sheetId="14" r:id="rId10"/>
+    <sheet name="日期时间处理" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">subtotal!$A$22:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数据集!$I$1:$I$191</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="322">
   <si>
     <t>12334556666</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,13 +551,678 @@
   <si>
     <t>SUBTOTAL(103,$B$23:B23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@"岁"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"kxcyz-"000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00"小时"00"分钟"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速录入信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@“"省"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#.##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#,###.##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy/mm/dd</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期和数（单位是天，1对应就是一天，如果是小时或者分钟，做相应的换算后再相加减）可以直接相加减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A14+1/24/60*B14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(B19-A19)*24*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休日期计算（60年），分别取年月日的数字，做加后，再拼凑起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休日期date(y,m,d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川ANB591</t>
+  </si>
+  <si>
+    <t>蒙B52467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时的费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京A4642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于1，就按小时计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔年数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除年取月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除月取天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除年取天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间间隔datedif(start,end,flag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月最后一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date函数超过进制则进位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月有多少天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假日期转真日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运准</t>
+  </si>
+  <si>
+    <t>华地</t>
+  </si>
+  <si>
+    <t>澳具</t>
+  </si>
+  <si>
+    <t>锦发</t>
+  </si>
+  <si>
+    <t>盛浩</t>
+  </si>
+  <si>
+    <t>益客</t>
+  </si>
+  <si>
+    <t>巨鑫</t>
+  </si>
+  <si>
+    <t>帝方</t>
+  </si>
+  <si>
+    <t>迎善</t>
+  </si>
+  <si>
+    <t>斯创</t>
+  </si>
+  <si>
+    <t>盈命</t>
+  </si>
+  <si>
+    <t>品斯</t>
+  </si>
+  <si>
+    <t>星艺</t>
+  </si>
+  <si>
+    <t>典宇</t>
+  </si>
+  <si>
+    <t>中德</t>
+  </si>
+  <si>
+    <t>仕天</t>
+  </si>
+  <si>
+    <t>锐世</t>
+  </si>
+  <si>
+    <t>文雅</t>
+  </si>
+  <si>
+    <t>威鼎</t>
+  </si>
+  <si>
+    <t>蓝建</t>
+  </si>
+  <si>
+    <t>今海</t>
+  </si>
+  <si>
+    <t>立润</t>
+  </si>
+  <si>
+    <t>德星</t>
+  </si>
+  <si>
+    <t>欧玛</t>
+  </si>
+  <si>
+    <t>晖集</t>
+  </si>
+  <si>
+    <t>卓点</t>
+  </si>
+  <si>
+    <t>盛蓝</t>
+  </si>
+  <si>
+    <t>顺圣</t>
+  </si>
+  <si>
+    <t>旭富</t>
+  </si>
+  <si>
+    <t>海口</t>
+  </si>
+  <si>
+    <t>宁夏回族自治区</t>
+  </si>
+  <si>
+    <t>西藏藏族自治区</t>
+  </si>
+  <si>
+    <t>内蒙古蒙古自治区</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>长春</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>呼和浩特</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+  </si>
+  <si>
+    <t>兰州</t>
+  </si>
+  <si>
+    <t>西宁</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>拉萨</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>台北</t>
+  </si>
+  <si>
+    <t>吉林省</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>青海省</t>
+  </si>
+  <si>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>贵州省</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>广西省</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>树之机械有限责任公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省米奇妙趣玩具集团有限责任公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥博管业有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>草野家私有限责任公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜阳易网网络科技有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏达家电有限责任公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永信科翔智能技术有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>美克斯机电设备工程有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>联邦数码办公设备销售有限责任公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三洋电梯有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>优博贸易有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>南威软件股份有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒网电脑科技有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿鑫教学设备有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四通显示科技股份有限公司</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="14">
+    <numFmt numFmtId="176" formatCode="@&quot;岁&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;kxcyz-&quot;000"/>
+    <numFmt numFmtId="178" formatCode="00&quot;小时&quot;00&quot;分钟&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="@&quot;省&quot;"/>
+    <numFmt numFmtId="181" formatCode="#"/>
+    <numFmt numFmtId="182" formatCode="#.##"/>
+    <numFmt numFmtId="183" formatCode="#,###.##"/>
+    <numFmt numFmtId="184" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="185" formatCode="yyyy"/>
+    <numFmt numFmtId="186" formatCode="m"/>
+    <numFmt numFmtId="187" formatCode="d"/>
+    <numFmt numFmtId="189" formatCode="aaa"/>
+    <numFmt numFmtId="190" formatCode="aaaa"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +1260,27 @@
       <color rgb="FF333333"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -641,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -656,25 +1345,38 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1042,6 +1744,912 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CCE21C-F463-44B0-A573-8FD19784C092}">
+  <dimension ref="A3:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="11">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="11">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="11">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>123456789.125</v>
+      </c>
+      <c r="B15" s="17">
+        <v>123456789.125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="15">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="F15" s="20">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="18">
+        <v>123456789.125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="21">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
+        <v>123456789.125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="22">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="23">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="24">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="25">
+        <v>42061.599999999999</v>
+      </c>
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5709018D-6C26-4208-A1A6-9B059A5D80FB}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>42171</v>
+      </c>
+      <c r="B3">
+        <v>-70.5</v>
+      </c>
+      <c r="C3" s="26">
+        <f>A3+B3</f>
+        <v>42100.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>42224</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="26">
+        <f>A4+B4</f>
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="13">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>42171</v>
+      </c>
+      <c r="B8" s="26">
+        <v>42180</v>
+      </c>
+      <c r="C8">
+        <f>B8-A8</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>42224</v>
+      </c>
+      <c r="B9" s="26">
+        <v>42272</v>
+      </c>
+      <c r="C9">
+        <f>B9-A9</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14" s="29">
+        <f>A14+1/24/60*B14</f>
+        <v>0.4375</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15" s="29">
+        <f t="shared" ref="C15:C16" si="0">A15+1/24/60*B15</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="13">
+        <f>(B19-A19)*24*60</f>
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="B20" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" ref="C20:C21" si="1">(B20-A20)*24*60</f>
+        <v>279.99999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="1"/>
+        <v>49.999999999999822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="26">
+        <v>23724</v>
+      </c>
+      <c r="C26" s="26">
+        <f>DATE(D26,E26,F26)</f>
+        <v>45639</v>
+      </c>
+      <c r="D26" s="26">
+        <f>YEAR($B26)+60</f>
+        <v>2024</v>
+      </c>
+      <c r="E26">
+        <f>MONTH(B26)</f>
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <f>DAY(B26)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="26">
+        <v>28316</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" ref="C27:C30" si="2">DATE(D27,E27,F27)</f>
+        <v>50231</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" ref="D27:D30" si="3">YEAR($B27)+60</f>
+        <v>2037</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E30" si="4">MONTH(B27)</f>
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F30" si="5">DAY(B27)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="26">
+        <v>25708</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="2"/>
+        <v>47623</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="26">
+        <v>29301</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="2"/>
+        <v>51216</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="26">
+        <v>31147</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="2"/>
+        <v>53062</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="15">
+        <v>39375.305555555555</v>
+      </c>
+      <c r="D34" s="15">
+        <v>39751.645833333336</v>
+      </c>
+      <c r="E34">
+        <f>INT(D34-C34)</f>
+        <v>376</v>
+      </c>
+      <c r="F34">
+        <f>HOUR(D34-C34)</f>
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <f>MINUTE(D34-C34)</f>
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <f>MROUND((D34-C34)*24,0.5)</f>
+        <v>9032</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f>H34*I34</f>
+        <v>54192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="15">
+        <v>39562.361111111109</v>
+      </c>
+      <c r="D35" s="15">
+        <v>39562.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E36" si="6">INT(D35-C35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F37" si="7">HOUR(D35-C35)</f>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G36" si="8">MINUTE(D35-C35)</f>
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H36" si="9">MROUND((D35-C35)*24,0.5)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J36" si="10">H35*I35</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="15">
+        <v>41871.434027777781</v>
+      </c>
+      <c r="D36" s="15">
+        <v>41925.635416666664</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>1301</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="10"/>
+        <v>13010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>42171</v>
+      </c>
+      <c r="B41" s="26">
+        <v>42576</v>
+      </c>
+      <c r="C41">
+        <f>DATEDIF(A41,B41,"y")</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f>DATEDIF($A41,$B41,"m")</f>
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <f>DATEDIF($A41,$B41,"d")</f>
+        <v>405</v>
+      </c>
+      <c r="F41">
+        <f>DATEDIF($A41,$B41,"ym")</f>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>DATEDIF($A41,$B41,"md")</f>
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <f>DATEDIF($A41,$B41,"yd")</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
+        <v>28316</v>
+      </c>
+      <c r="B44" s="26">
+        <f>DATE(YEAR(A44),MONTH(A44)+1,0)</f>
+        <v>28337</v>
+      </c>
+      <c r="C44">
+        <f>DAY(B44)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="26">
+        <v>25678</v>
+      </c>
+      <c r="B45" s="26">
+        <f t="shared" ref="B45:B46" si="11">DATE(YEAR(A45),MONTH(A45)+1,0)</f>
+        <v>25688</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C46" si="12">DAY(B45)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="26">
+        <v>29301</v>
+      </c>
+      <c r="B46" s="26">
+        <f t="shared" si="11"/>
+        <v>29311</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20150101</v>
+      </c>
+      <c r="B51" s="26">
+        <f>DATE(LEFT(A51,4),MID(A51,5,2),RIGHT(A51,2))</f>
+        <v>42005</v>
+      </c>
+      <c r="C51">
+        <f>TEXT(A51,"0000-00-00")*1</f>
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="26">
+        <f>DATE(LEFT(A52,4),MID(A52,6,2),RIGHT(A52,2))</f>
+        <v>42005</v>
+      </c>
+      <c r="C52" t="e">
+        <f>TEXT(A52,"0000.00.00")*1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C13F3-6519-4EFD-945A-1C4CFB7E3F2B}">
   <dimension ref="A3:I37"/>
@@ -1767,7 +3375,7 @@
         <v>75</v>
       </c>
       <c r="B27" t="str">
-        <f>IF(COUNTIF(E:E,A27)=0,"否","是")</f>
+        <f t="shared" ref="B27:B46" si="0">IF(COUNTIF(E:E,A27)=0,"否","是")</f>
         <v>是</v>
       </c>
       <c r="E27" t="s">
@@ -1779,7 +3387,7 @@
         <v>76</v>
       </c>
       <c r="B28" t="str">
-        <f>IF(COUNTIF(E:E,A28)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E28" t="s">
@@ -1791,7 +3399,7 @@
         <v>77</v>
       </c>
       <c r="B29" t="str">
-        <f>IF(COUNTIF(E:E,A29)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E29" t="s">
@@ -1803,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="B30" t="str">
-        <f>IF(COUNTIF(E:E,A30)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E30" t="s">
@@ -1815,7 +3423,7 @@
         <v>79</v>
       </c>
       <c r="B31" t="str">
-        <f>IF(COUNTIF(E:E,A31)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E31" t="s">
@@ -1827,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="str">
-        <f>IF(COUNTIF(E:E,A32)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E32" t="s">
@@ -1839,7 +3447,7 @@
         <v>81</v>
       </c>
       <c r="B33" t="str">
-        <f>IF(COUNTIF(E:E,A33)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E33" t="s">
@@ -1851,7 +3459,7 @@
         <v>82</v>
       </c>
       <c r="B34" t="str">
-        <f>IF(COUNTIF(E:E,A34)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E34" t="s">
@@ -1863,7 +3471,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="str">
-        <f>IF(COUNTIF(E:E,A35)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E35" t="s">
@@ -1875,7 +3483,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="str">
-        <f>IF(COUNTIF(E:E,A36)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>是</v>
       </c>
       <c r="E36" t="s">
@@ -1887,7 +3495,7 @@
         <v>85</v>
       </c>
       <c r="B37" t="str">
-        <f>IF(COUNTIF(E:E,A37)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1896,7 +3504,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="str">
-        <f>IF(COUNTIF(E:E,A38)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1905,7 +3513,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="str">
-        <f>IF(COUNTIF(E:E,A39)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1914,7 +3522,7 @@
         <v>88</v>
       </c>
       <c r="B40" t="str">
-        <f>IF(COUNTIF(E:E,A40)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1923,7 +3531,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="str">
-        <f>IF(COUNTIF(E:E,A41)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1932,7 +3540,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="str">
-        <f>IF(COUNTIF(E:E,A42)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1941,7 +3549,7 @@
         <v>91</v>
       </c>
       <c r="B43" t="str">
-        <f>IF(COUNTIF(E:E,A43)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1950,7 +3558,7 @@
         <v>92</v>
       </c>
       <c r="B44" t="str">
-        <f>IF(COUNTIF(E:E,A44)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1959,7 +3567,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="str">
-        <f>IF(COUNTIF(E:E,A45)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -1968,7 +3576,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="str">
-        <f>IF(COUNTIF(E:E,A46)=0,"否","是")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
@@ -2004,7 +3612,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:B80" si="0">COUNTIF($A$55:$A$80,A56)</f>
+        <f t="shared" ref="B56:B80" si="1">COUNTIF($A$55:$A$80,A56)</f>
         <v>1</v>
       </c>
     </row>
@@ -2013,7 +3621,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2022,7 +3630,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2031,7 +3639,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2040,7 +3648,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2049,7 +3657,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2058,7 +3666,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2067,7 +3675,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2076,7 +3684,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2085,7 +3693,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2094,7 +3702,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2103,7 +3711,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2112,7 +3720,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2121,7 +3729,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2130,7 +3738,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2139,7 +3747,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2148,7 +3756,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2157,7 +3765,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +3774,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2175,7 +3783,7 @@
         <v>57</v>
       </c>
       <c r="B75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2184,7 +3792,7 @@
         <v>62</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2193,7 +3801,7 @@
         <v>68</v>
       </c>
       <c r="B77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2202,7 +3810,7 @@
         <v>74</v>
       </c>
       <c r="B78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2211,7 +3819,7 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -2220,7 +3828,7 @@
         <v>55</v>
       </c>
       <c r="B80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2502,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F656F4-C181-49A7-B9D6-BCA366E4ED3D}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2514,9 +4122,13 @@
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -2526,8 +4138,22 @@
       <c r="E1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="26">
+        <v>23724</v>
+      </c>
+      <c r="I1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -2537,8 +4163,23 @@
       <c r="E2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="26">
+        <v>28316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
@@ -2548,8 +4189,23 @@
       <c r="E3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="26">
+        <v>25708</v>
+      </c>
+      <c r="I3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
@@ -2559,8 +4215,22 @@
       <c r="E4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="26">
+        <v>29301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
@@ -2570,203 +4240,621 @@
       <c r="E5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="26">
+        <v>31147</v>
+      </c>
+      <c r="I5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K11" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" t="s">
+        <v>291</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" t="s">
+        <v>292</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" t="s">
+        <v>293</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>320</v>
+      </c>
+      <c r="K14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" t="s">
+        <v>272</v>
+      </c>
+      <c r="L15" t="s">
+        <v>295</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" t="s">
+        <v>296</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" t="s">
+        <v>297</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" t="s">
+        <v>276</v>
+      </c>
+      <c r="L19" t="s">
+        <v>298</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" t="s">
+        <v>299</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" t="s">
+        <v>301</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>281</v>
+      </c>
+      <c r="L24" t="s">
+        <v>302</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" t="s">
+        <v>303</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" t="s">
+        <v>304</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s">
+        <v>284</v>
+      </c>
+      <c r="L27" t="s">
+        <v>305</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>306</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3035,7 +5123,7 @@
         <v>500</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">SUM(B3:D3)</f>
+        <f t="shared" ref="E3:E4" si="0">SUM(B3:D3)</f>
         <v>2500</v>
       </c>
     </row>
@@ -3101,7 +5189,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3278,8 +5366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED6547-11CF-43B1-8DE8-15F27BA04784}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/office/gate/excel/基础.xlsx
+++ b/office/gate/excel/基础.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepository\daily\office\gate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE4885-B19E-454A-B100-BE528EEA6429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB09A8-DACA-480A-AA06-D0F8B92E47C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1219,8 +1219,8 @@
     <numFmt numFmtId="185" formatCode="yyyy"/>
     <numFmt numFmtId="186" formatCode="m"/>
     <numFmt numFmtId="187" formatCode="d"/>
-    <numFmt numFmtId="189" formatCode="aaa"/>
-    <numFmt numFmtId="190" formatCode="aaaa"/>
+    <numFmt numFmtId="188" formatCode="aaa"/>
+    <numFmt numFmtId="189" formatCode="aaaa"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1359,19 +1359,19 @@
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1662,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E30"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CCE21C-F463-44B0-A573-8FD19784C092}">
   <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1958,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5709018D-6C26-4208-A1A6-9B059A5D80FB}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -1973,11 +1973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2077,13 +2077,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>0.375</v>
       </c>
       <c r="B14">
         <v>90</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <f>A14+1/24/60*B14</f>
         <v>0.4375</v>
       </c>
@@ -2092,25 +2092,25 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>0.55555555555555558</v>
       </c>
       <c r="B15">
         <v>80</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <f t="shared" ref="C15:C16" si="0">A15+1/24/60*B15</f>
         <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>0.81944444444444453</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
@@ -2130,10 +2130,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>0.375</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>0.5</v>
       </c>
       <c r="C19" s="13">
@@ -2145,10 +2145,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>0.55555555555555558</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>0.75</v>
       </c>
       <c r="C20" s="13">
@@ -2157,10 +2157,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>0.81944444444444453</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>0.85416666666666663</v>
       </c>
       <c r="C21" s="13">
@@ -2169,12 +2169,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2317,12 +2317,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F37" si="7">HOUR(D35-C35)</f>
+        <f t="shared" ref="F35:F36" si="7">HOUR(D35-C35)</f>
         <v>3</v>
       </c>
       <c r="G35">
@@ -2473,12 +2473,12 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2542,7 +2542,7 @@
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>211</v>
       </c>
       <c r="C43" t="s">
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2654,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858C13F3-6519-4EFD-945A-1C4CFB7E3F2B}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3099,7 +3099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6161A9D5-9C51-4A25-BECA-EA5C652D25F4}">
   <dimension ref="A4:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -4112,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F656F4-C181-49A7-B9D6-BCA366E4ED3D}">
   <dimension ref="A1:P191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4758,93 +4758,93 @@
       </c>
     </row>
     <row r="45" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I45" s="32"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="32"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I49" s="32"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I51" s="32"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I53" s="32"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I55" s="32"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I57" s="32"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I59" s="32"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I61" s="32"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I63" s="32"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I65" s="32"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I67" s="32"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I69" s="32"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I71" s="32"/>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I73" s="32"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I75" s="32"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I77" s="32"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I79" s="32"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I81" s="32"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="32"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="32"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="32"/>
+      <c r="I86" s="30"/>
     </row>
     <row r="87" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="32"/>
+      <c r="I87" s="30"/>
     </row>
     <row r="88" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="9:9" ht="69" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5366,7 +5366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED6547-11CF-43B1-8DE8-15F27BA04784}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
